--- a/biology/Zoologie/Hystrix_brachyura/Hystrix_brachyura.xlsx
+++ b/biology/Zoologie/Hystrix_brachyura/Hystrix_brachyura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Porc-épic de Malaisie, Porc-épic chinois, Porc-épic himalayen
 Le Porc-épic de Malaisie (Hystrix brachyura) est un porc-épic de la famille des Hystricidae. C'est une espèce asiatique menacée qui est estimée comme étant vulnérable (VU) par l'Union internationale pour la conservation de la nature (UICN).
@@ -512,10 +524,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Hystrix brachyura Linnaeus, 1758[1] ou, avec le sous-genre, Hystrix (Acanthion) brachyura Linnaeus, 1758[2].
-Noms vulgaires (vulgarisation scientifique) ou noms vernaculaires (langage courant) en français : Porc-épic de Malaisie[3], Porc-épic chinois[4] ou Porc-épic himalayen[4]. En anglais Malayan Porcupine ou Himalayan Crestless Porcupine[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Hystrix brachyura Linnaeus, 1758 ou, avec le sous-genre, Hystrix (Acanthion) brachyura Linnaeus, 1758.
+Noms vulgaires (vulgarisation scientifique) ou noms vernaculaires (langage courant) en français : Porc-épic de Malaisie, Porc-épic chinois ou Porc-épic himalayen. En anglais Malayan Porcupine ou Himalayan Crestless Porcupine.</t>
         </is>
       </c>
     </row>
@@ -543,21 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le porc-épic de Malaisie mesure de 63,5 à 72,5 cm de long (corps et tête) et a une queue de 6,4 à 11,4 cm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le porc-épic de Malaisie mesure de 63,5 à 72,5 cm de long (corps et tête) et a une queue de 6,4 à 11,4 cm.
 Il pèse 8 kg.
-Il a des poils noirs  et de longs piquants creux noirs et blancs mesurant jusqu'à 23 cm de longueur[6]. Ses piquants lui servent d'armes défensives. Les piquants de la queue forment une crécelle. Lorsqu'il secoue la queue, les piquants s'entrechoquent et cliquettent.
-Comportement
-C'est un animal terrestre qui vit en groupe familial, dans un terrier creusé dans le sol[7].
-Quand on demande comment s'accouplent les porcs-épics, la réponse traditionnelle à cette blague est "avec beaucoup de précaution" mais contrairement à ce que suggère la réponse la position d'accouplement dans la réalité est orthodoxe et classique[8]. La femelle met bas, généralement deux fois par an, après une gestation de 110 jours. Chaque portée comporte deux ou trois petits, qu'elle allaite puisque c'est un mammifère[7]. Au bout de deux semaines les piquants mous des petits commencent à durcir et ils quittent le terrier pour jouer à proximité[9].
-Alimentation
-Le porc-épic de Malaisie est végétarien.
-Il mange des racines, des tubercules, des écorces et des fruits tombés au sol.
-Habitat et répartition
-On rencontre ce porc-épic dans une large zone du sud-est de l'Asie, en Malaisie, mais aussi au Bangladesh, en Chine, Inde, Indonésie, au Laos, en Birmanie, au Népal, en Thaïlande et au Viêt Nam[7].
-Les populations fréquentent les forêts tropicales et subtropicales et leurs abords, mais on les rencontre aussi dans les zones cultivées à condition d'avoir à proximité un terrain rocailleux où trouver un abri ou creuser leur terrier[7].
-</t>
+Il a des poils noirs  et de longs piquants creux noirs et blancs mesurant jusqu'à 23 cm de longueur. Ses piquants lui servent d'armes défensives. Les piquants de la queue forment une crécelle. Lorsqu'il secoue la queue, les piquants s'entrechoquent et cliquettent.</t>
         </is>
       </c>
     </row>
@@ -582,16 +588,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un animal terrestre qui vit en groupe familial, dans un terrier creusé dans le sol.
+Quand on demande comment s'accouplent les porcs-épics, la réponse traditionnelle à cette blague est "avec beaucoup de précaution" mais contrairement à ce que suggère la réponse la position d'accouplement dans la réalité est orthodoxe et classique. La femelle met bas, généralement deux fois par an, après une gestation de 110 jours. Chaque portée comporte deux ou trois petits, qu'elle allaite puisque c'est un mammifère. Au bout de deux semaines les piquants mous des petits commencent à durcir et ils quittent le terrier pour jouer à proximité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hystrix_brachyura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hystrix_brachyura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le porc-épic de Malaisie est végétarien.
+Il mange des racines, des tubercules, des écorces et des fruits tombés au sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hystrix_brachyura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hystrix_brachyura</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre ce porc-épic dans une large zone du sud-est de l'Asie, en Malaisie, mais aussi au Bangladesh, en Chine, Inde, Indonésie, au Laos, en Birmanie, au Népal, en Thaïlande et au Viêt Nam.
+Les populations fréquentent les forêts tropicales et subtropicales et leurs abords, mais on les rencontre aussi dans les zones cultivées à condition d'avoir à proximité un terrain rocailleux où trouver un abri ou creuser leur terrier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hystrix_brachyura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hystrix_brachyura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois en 1758 par le naturaliste suédois Carl von Linné (1707-1778).
-Étymologie : « Hystrix » signifie hérissé[10], du grec ancien ὕστριξ (hystrix), et « brachyura » veut dire « qui a la queue courte »[10].
-Des auteurs comme Van Weers en 1979, ou Lekagul et McNeely en 1988, classent cette espèce dans le sous-genre Acanthion, ce qui donne comme nom scientifique complet : Hystrix (Acanthion) brachyura Linnaeus, 1758[2].
-Liste de sous-espèces
-Selon Mammal Species of the World (version 3, 2005)  (29 avril 2014)[2]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 1758 par le naturaliste suédois Carl von Linné (1707-1778).
+Étymologie : « Hystrix » signifie hérissé, du grec ancien ὕστριξ (hystrix), et « brachyura » veut dire « qui a la queue courte ».
+Des auteurs comme Van Weers en 1979, ou Lekagul et McNeely en 1988, classent cette espèce dans le sous-genre Acanthion, ce qui donne comme nom scientifique complet : Hystrix (Acanthion) brachyura Linnaeus, 1758.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hystrix_brachyura</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hystrix_brachyura</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste de sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (29 avril 2014)
 sous-genre Hystrix (Acanthion)
 espèce Hystrix (Acanthion) brachyura
 sous-espèce Hystrix (Acanthion) brachyura brachyura
